--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://andbank365-my.sharepoint.com/personal/diego_ortiz_andbank_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{17C0DBE5-D7E3-4F3F-B662-8BBCF008BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3405BEB1-6E44-4AD6-814C-97B87305E9A0}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{17C0DBE5-D7E3-4F3F-B662-8BBCF008BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67C9906-3B84-41A8-BB6C-C41E4EC95793}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EFDB89B-533C-4B30-9A07-0E2947DFC216}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1486,466 +1486,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -16182,10 +15723,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -31329,567 +30866,327 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="116" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="63" priority="112" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D19">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D238 E7 D44:E46 E11 D240 D242 D21:E21 D168:E169 E99 D148:E149 E9 D23:E23 D25:E25 D27:E27 D29:E29 D31:E31 D33:E33 D93:E97 D111:E118 D225 D70:E81 D36:E41 D227 D130:E135 D61:E68 D137:E142 D100:E109 D121:E128 D153:E163 D85:D91">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+  <conditionalFormatting sqref="D173 D175 D177 D179 D181">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
+  <conditionalFormatting sqref="D183">
+    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+  <conditionalFormatting sqref="D185 D187">
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19">
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D55">
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D165">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D171">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D191">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+  <conditionalFormatting sqref="D189">
+    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D193">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D196 D198">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D204 D206">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D209">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D215">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D221">
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D230">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+  <conditionalFormatting sqref="D230:D237">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D233">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+  <conditionalFormatting sqref="D239">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D234">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+  <conditionalFormatting sqref="D241">
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D244 D246">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+  <conditionalFormatting sqref="D243:D247">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E55">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 E17 E19">
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+  <conditionalFormatting sqref="D30:E30">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+  <conditionalFormatting sqref="D32:E32">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D247">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+  <conditionalFormatting sqref="D35:E35">
+    <cfRule type="cellIs" dxfId="36" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:E43">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+  <conditionalFormatting sqref="D48:E55">
+    <cfRule type="cellIs" dxfId="34" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:E59">
+    <cfRule type="cellIs" dxfId="33" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:E83">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119:E119">
+    <cfRule type="cellIs" dxfId="31" priority="88" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D143:E146">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152:E152">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165:E166">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171:E171">
+    <cfRule type="cellIs" dxfId="27" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D174:E174">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D176:E176">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D178:E178">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180:E180">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D182:E182">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D184:E184">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D186:E186">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D191:E192">
+    <cfRule type="cellIs" dxfId="19" priority="44" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D194:E194">
+    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D197:E197">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D200:E200">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D202:E202">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D205:E205">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D208:E208">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D211:E211">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213:E213">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D216:E217">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D219:E219">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D222:E222">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D224:E224">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D226:E226">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D228:E228">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="cellIs" dxfId="4" priority="80" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7 E9 E11 D21:E21 D23:E23 D25:E25 D27:E27 D29:E29 D31:E31 D33:E33 D36:E41 D44:E46 D61:E68 D70:E81 D85:D91 D93:E97 E99 D100:E109 D111:E118 D121:E128 D130:E135 D137:E142 D148:E149 D153:E163 D168:E169 D225 D227 D238 D240 D242">
+    <cfRule type="cellIs" dxfId="3" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:E83">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146:E146">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D144:E144">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D192:E192">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D194:E194">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D185 D187">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D173 D175 D177 D179 D181">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D189">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D174:E174">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D176:E176">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D178:E178">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D180:E180">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D182:E182">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D184:E184">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D186:E186">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D205:E205">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D202:E202">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D208:E208">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D211:E211">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D213:E213">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D216:E216">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D219:E219">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D226:E226">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D222:E222">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D235">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D239">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D241">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D243">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D245">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D143:E143">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D145:E145">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D200:E200">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D197:E197">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D231">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D232">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D236">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D237">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D166:E166">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D228:E228">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D224:E224">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D152:E152">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D217:E217">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E12:E19">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
